--- a/data/trans_dic/IP08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP08-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>19,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>12,27%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8,74%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>13,47%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>9,48%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>9,59%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>10,82%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>13,77%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>9,19%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>9,94%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,85; 17,58</t>
+          <t>2,35; 23,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,13; 18,19</t>
+          <t>6,81; 36,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,45</t>
+          <t>0,0; 13,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 14,31</t>
+          <t>4,78; 43,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 11,14</t>
+          <t>2,64; 29,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 17,47</t>
+          <t>3,83; 30,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 12,89</t>
+          <t>0,0; 32,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,0; 14,83</t>
+          <t>2,39; 22,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 13,25</t>
+          <t>3,36; 19,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,16; 16,68</t>
+          <t>7,19; 27,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,82</t>
+          <t>2,13; 16,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 12,92</t>
+          <t>6,49; 27,16</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>9,94%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,56; 14,64</t>
+          <t>9,85; 17,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 17,47</t>
+          <t>10,13; 18,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,37</t>
+          <t>6,14; 12,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 20,17</t>
+          <t>7,47; 14,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 15,06</t>
+          <t>5,43; 11,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 13,62</t>
+          <t>10,16; 17,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,4</t>
+          <t>6,87; 12,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 14,05</t>
+          <t>6,0; 14,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,55; 13,61</t>
+          <t>8,45; 13,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,26; 14,52</t>
+          <t>11,16; 16,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,63</t>
+          <t>7,25; 11,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 15,47</t>
+          <t>7,73; 12,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 23,04</t>
+          <t>6,64; 14,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 36,07</t>
+          <t>11,21; 20,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,66</t>
+          <t>3,18; 9,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,78; 43,81</t>
+          <t>7,34; 16,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 29,43</t>
+          <t>2,99; 9,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 30,68</t>
+          <t>9,06; 17,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,71</t>
+          <t>3,55; 9,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,39; 22,08</t>
+          <t>5,62; 12,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 19,25</t>
+          <t>5,69; 11,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 27,05</t>
+          <t>11,09; 17,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 16,99</t>
+          <t>3,87; 7,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 27,16</t>
+          <t>7,22; 12,96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>12,21%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 14,8</t>
+          <t>7,56; 14,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,21; 20,02</t>
+          <t>9,71; 17,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,31</t>
+          <t>3,89; 9,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,34; 16,88</t>
+          <t>10,73; 20,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,99; 9,25</t>
+          <t>7,52; 15,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,06; 17,71</t>
+          <t>6,79; 13,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,92</t>
+          <t>2,86; 8,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,72</t>
+          <t>6,17; 14,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,69; 11,02</t>
+          <t>8,55; 13,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,09; 17,09</t>
+          <t>9,26; 14,52</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,84</t>
+          <t>4,03; 7,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 12,96</t>
+          <t>9,58; 15,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP08-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 23,04</t>
+          <t>2,35; 21,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 36,07</t>
+          <t>7,15; 38,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,66</t>
+          <t>0,0; 14,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,64; 29,43</t>
+          <t>2,62; 26,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 30,68</t>
+          <t>3,9; 30,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,71</t>
+          <t>0,0; 29,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 19,25</t>
+          <t>3,73; 20,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 27,05</t>
+          <t>7,16; 27,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 16,99</t>
+          <t>2,16; 16,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 16,92</t>
+          <t>7,74; 17,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,47; 15,65</t>
+          <t>6,59; 16,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,17; 12,07</t>
+          <t>3,63; 12,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,16; 29,98</t>
+          <t>7,24; 31,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 10,48</t>
+          <t>3,49; 11,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 15,12</t>
+          <t>5,77; 15,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 9,9</t>
+          <t>2,35; 9,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 15,34</t>
+          <t>6,43; 15,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 12,55</t>
+          <t>6,59; 12,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 13,58</t>
+          <t>7,14; 13,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,14; 9,29</t>
+          <t>4,05; 9,37</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 22,12</t>
+          <t>8,1; 22,5</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 17,58</t>
+          <t>9,84; 17,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,13; 18,19</t>
+          <t>10,61; 17,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,45</t>
+          <t>6,12; 12,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,47; 14,31</t>
+          <t>7,46; 13,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,43; 11,14</t>
+          <t>5,51; 11,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,16; 17,47</t>
+          <t>10,36; 17,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 12,89</t>
+          <t>6,58; 13,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,0; 14,83</t>
+          <t>6,22; 14,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,45; 13,25</t>
+          <t>8,65; 13,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,16; 16,68</t>
+          <t>11,19; 16,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 11,82</t>
+          <t>7,07; 11,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 12,92</t>
+          <t>7,68; 12,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,64; 14,8</t>
+          <t>6,98; 15,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 20,02</t>
+          <t>11,02; 20,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,31</t>
+          <t>3,19; 8,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 16,88</t>
+          <t>7,1; 16,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 9,25</t>
+          <t>3,23; 9,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,06; 17,71</t>
+          <t>9,11; 17,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,92</t>
+          <t>3,86; 9,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,72</t>
+          <t>5,35; 12,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 11,02</t>
+          <t>5,78; 11,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,09; 17,09</t>
+          <t>11,38; 17,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,84</t>
+          <t>3,92; 7,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 12,96</t>
+          <t>7,32; 13,33</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 14,64</t>
+          <t>7,4; 14,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,71; 17,47</t>
+          <t>9,96; 17,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 9,37</t>
+          <t>3,69; 9,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,73; 20,17</t>
+          <t>10,76; 20,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 15,06</t>
+          <t>7,76; 14,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,79; 13,62</t>
+          <t>6,98; 14,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,4</t>
+          <t>3,01; 8,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,17; 14,05</t>
+          <t>6,01; 13,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,55; 13,61</t>
+          <t>8,49; 13,68</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,26; 14,52</t>
+          <t>8,99; 14,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,63</t>
+          <t>3,97; 7,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,58; 15,47</t>
+          <t>9,31; 15,46</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,79; 13,54</t>
+          <t>9,65; 13,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,36; 15,64</t>
+          <t>11,44; 15,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,57; 8,51</t>
+          <t>5,43; 8,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,02; 15,46</t>
+          <t>10,17; 15,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,17</t>
+          <t>6,54; 10,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,9; 13,54</t>
+          <t>9,79; 13,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,49</t>
+          <t>5,47; 8,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,48; 11,33</t>
+          <t>7,54; 11,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,77; 11,32</t>
+          <t>8,72; 11,21</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,32; 14,19</t>
+          <t>11,26; 14,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,86; 8,07</t>
+          <t>5,91; 8,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,28; 12,82</t>
+          <t>9,4; 13,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP08-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 21,21</t>
+          <t>2,36; 23,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 38,66</t>
+          <t>7,21; 37,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,09</t>
+          <t>0,0; 14,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,78; 43,81</t>
+          <t>5,09; 42,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 26,17</t>
+          <t>2,69; 27,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,9; 30,71</t>
+          <t>3,88; 31,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,52</t>
+          <t>0,0; 29,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 22,08</t>
+          <t>2,38; 22,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,73; 20,27</t>
+          <t>3,71; 20,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,16; 27,28</t>
+          <t>7,53; 29,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,16; 16,66</t>
+          <t>2,14; 15,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,49; 27,16</t>
+          <t>6,45; 25,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 17,23</t>
+          <t>7,89; 17,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 16,74</t>
+          <t>6,55; 15,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 12,28</t>
+          <t>3,86; 11,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 31,34</t>
+          <t>7,35; 33,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 11,03</t>
+          <t>3,38; 10,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 15,22</t>
+          <t>5,54; 14,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,35; 9,47</t>
+          <t>2,86; 9,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 15,54</t>
+          <t>5,92; 15,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 12,37</t>
+          <t>6,5; 12,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 13,52</t>
+          <t>7,01; 13,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,05; 9,37</t>
+          <t>4,03; 9,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,1; 22,5</t>
+          <t>8,2; 23,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 17,56</t>
+          <t>9,92; 17,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 17,99</t>
+          <t>10,77; 18,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 12,7</t>
+          <t>6,18; 12,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,89</t>
+          <t>7,34; 13,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,24</t>
+          <t>5,58; 11,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,36; 17,32</t>
+          <t>9,93; 17,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,58; 13,15</t>
+          <t>6,65; 12,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 14,74</t>
+          <t>6,4; 14,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,65; 13,45</t>
+          <t>8,69; 13,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 16,56</t>
+          <t>11,14; 16,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 11,93</t>
+          <t>7,16; 11,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,89</t>
+          <t>7,91; 13,1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 15,36</t>
+          <t>6,62; 14,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,02; 20,23</t>
+          <t>11,35; 20,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,57</t>
+          <t>3,07; 8,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 16,22</t>
+          <t>7,21; 16,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 9,43</t>
+          <t>3,21; 9,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,11; 17,37</t>
+          <t>9,41; 18,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 9,81</t>
+          <t>3,59; 10,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 12,75</t>
+          <t>5,44; 12,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 11,07</t>
+          <t>6,01; 11,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,38; 17,28</t>
+          <t>11,1; 17,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 7,88</t>
+          <t>3,96; 8,02</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,32; 13,33</t>
+          <t>7,24; 13,41</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,4; 14,03</t>
+          <t>7,48; 14,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,96; 17,45</t>
+          <t>9,32; 17,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 9,25</t>
+          <t>3,7; 9,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,76; 20,05</t>
+          <t>11,15; 20,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,76; 14,74</t>
+          <t>7,53; 15,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 14,06</t>
+          <t>7,2; 14,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,01; 8,28</t>
+          <t>2,8; 8,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 13,34</t>
+          <t>6,06; 13,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 13,68</t>
+          <t>8,55; 13,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,99; 14,3</t>
+          <t>8,92; 14,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,66</t>
+          <t>3,95; 7,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 15,46</t>
+          <t>9,56; 15,71</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9,65; 13,45</t>
+          <t>9,95; 13,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,44; 15,56</t>
+          <t>11,54; 15,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,43; 8,54</t>
+          <t>5,52; 8,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,17; 15,38</t>
+          <t>10,28; 15,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,2</t>
+          <t>6,64; 9,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,79; 13,69</t>
+          <t>9,71; 13,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,47; 8,53</t>
+          <t>5,32; 8,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,51</t>
+          <t>7,51; 11,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,72; 11,21</t>
+          <t>8,71; 11,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,26; 14,1</t>
+          <t>11,2; 14,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,91; 8,03</t>
+          <t>5,85; 7,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,4; 13,02</t>
+          <t>9,43; 12,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP08-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP08-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han sufrido alguna dolencia o enfermedad continuada</t>
+          <t>Menores que sufrieron alguna dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>6,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>10,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,95%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 23,84</t>
+          <t>3,7; 11,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,21; 37,38</t>
+          <t>6,34; 15,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,52</t>
+          <t>3,32; 10,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,09; 42,74</t>
+          <t>6,41; 15,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 27,73</t>
+          <t>7,57; 16,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 31,75</t>
+          <t>7,73; 16,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,48</t>
+          <t>3,65; 10,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 22,74</t>
+          <t>8,51; 40,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 20,07</t>
+          <t>6,83; 12,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 29,1</t>
+          <t>8,06; 14,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 15,68</t>
+          <t>4,34; 9,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,45; 25,57</t>
+          <t>8,91; 25,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,33%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>10,66%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 17,49</t>
+          <t>5,43; 11,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 15,53</t>
+          <t>10,16; 17,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 11,86</t>
+          <t>6,87; 12,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 33,01</t>
+          <t>6,9; 22,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 10,78</t>
+          <t>9,85; 17,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 14,81</t>
+          <t>10,13; 18,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 9,72</t>
+          <t>6,14; 12,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 15,78</t>
+          <t>7,55; 14,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 12,81</t>
+          <t>8,45; 13,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,01; 13,67</t>
+          <t>11,16; 16,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,65</t>
+          <t>7,25; 11,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,2; 23,42</t>
+          <t>8,24; 15,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>9,47%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,92; 17,2</t>
+          <t>2,99; 9,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,77; 18,21</t>
+          <t>9,06; 17,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 12,37</t>
+          <t>3,55; 9,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 13,83</t>
+          <t>4,35; 11,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,56</t>
+          <t>6,64; 14,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 17,18</t>
+          <t>11,21; 20,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,65; 12,91</t>
+          <t>3,18; 9,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 14,14</t>
+          <t>7,54; 17,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,69; 13,57</t>
+          <t>5,69; 11,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 16,59</t>
+          <t>11,09; 17,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 11,72</t>
+          <t>3,87; 7,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 13,1</t>
+          <t>6,7; 12,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,32 +1076,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,04%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>13,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,27 +1111,27 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,62%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>12,56%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 14,99</t>
+          <t>7,52; 15,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,35; 20,04</t>
+          <t>6,79; 13,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,07; 8,9</t>
+          <t>2,86; 8,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 16,47</t>
+          <t>6,12; 14,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,32</t>
+          <t>7,56; 14,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 18,1</t>
+          <t>9,71; 17,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,0</t>
+          <t>3,89; 9,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 12,81</t>
+          <t>11,09; 20,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 11,12</t>
+          <t>8,55; 13,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,1; 17,17</t>
+          <t>9,26; 14,52</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,02</t>
+          <t>4,03; 7,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 13,41</t>
+          <t>9,87; 16,04</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>9,96%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>11,41%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,48; 14,61</t>
+          <t>6,7; 10,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,32; 17,86</t>
+          <t>9,9; 13,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,39</t>
+          <t>5,26; 8,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,15; 20,66</t>
+          <t>7,52; 12,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,04</t>
+          <t>9,79; 13,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 14,25</t>
+          <t>11,36; 15,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,8; 8,16</t>
+          <t>5,57; 8,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,06; 13,79</t>
+          <t>10,49; 17,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,55; 13,64</t>
+          <t>8,77; 11,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,92; 14,44</t>
+          <t>11,32; 14,19</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 7,7</t>
+          <t>5,86; 8,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,71</t>
+          <t>9,62; 14,07</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>11,56%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13,59%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,94%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>12,38%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,26%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>11,66%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>6,79%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>9,33%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>9,96%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>12,65%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>6,86%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>10,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>9,95; 13,83</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11,54; 15,68</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,52; 8,52</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>10,28; 15,83</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>6,64; 9,99</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>9,71; 13,67</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>5,32; 8,42</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>7,51; 11,57</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>8,71; 11,27</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>11,2; 14,12</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>5,85; 7,99</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>9,43; 12,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
